--- a/biology/Botanique/Lycoperdon_perlatum/Lycoperdon_perlatum.xlsx
+++ b/biology/Botanique/Lycoperdon_perlatum/Lycoperdon_perlatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycoperdon perlatum
 Lycoperdon perlatum, la Vesse-de-loup perlée, est une espèce de champignons basidiomycètes de la famille des Agaricaceae ou des Lycoperdaceae selon les classifications.
@@ -514,12 +526,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trois caractéristiques distinguent ce champignon dans sa phase comestible de sa phase de maturité, et d'autres champignons :
 l'aspect blanc, épineux de sa surface avec des « perles » molles qui se détachent lors des manipulations.
 la forme arrondie et effilée, souvent en forme de poire inversée, sans ouverture visible.
-la structure interne est uniforme, douce et d'un blanc pur quand le champignon est immature et comestible. Les formes d'âge mûr avec des spores sont de couleur jaune à olive à l'intérieur[1].
+la structure interne est uniforme, douce et d'un blanc pur quand le champignon est immature et comestible. Les formes d'âge mûr avec des spores sont de couleur jaune à olive à l'intérieur.
 Si la structure interne est dure ou contient des lamelles ou un pied intérieur, on est sûr qu'on n'a pas affaire à une Vesse-de-loup perlée mais peut-être à un champignon toxique potentiellement mortel.
 Son exoperidium est couvert d'épines et de verrues.Comestibles quand la gleba est blanche et ferme.</t>
         </is>
@@ -549,9 +563,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vesses-de-loup perlées sont considérées comme comestibles quand elles sont jeunes et que la gleba est homogène et blanche. Elles deviennent non comestibles à mesure qu'elles vieillissent : la glèbe devient jaunâtre, puis se développe finalement en une masse poudreuse de spores vert-olive[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vesses-de-loup perlées sont considérées comme comestibles quand elles sont jeunes et que la gleba est homogène et blanche. Elles deviennent non comestibles à mesure qu'elles vieillissent : la glèbe devient jaunâtre, puis se développe finalement en une masse poudreuse de spores vert-olive.
 Les « œufs » de certaines amanites mortelles peuvent être confondus avec les Vesses-de-loup perlées. Pour cette raison ces champignons doivent toujours être tranchés à la verticale et on doit inspecter les structures de développement d'un champignon. Toutefois, les Amanites n'ont généralement ni « perles », ni de surface bosselée.
 Les spores de Vesses-de-loup sont ornées de nombreux piquants microscopiques qui peuvent causer une grave irritation des poumons (lycoperdonosis (en)) lorsqu'elles sont inhalées directement (Anon. 1994 ; Strand 1967).
 </t>
